--- a/result/TrailATR/summary_XAUUSD_M30_2020-2024_0.xlsx
+++ b/result/TrailATR/summary_XAUUSD_M30_2020-2024_0.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T81"/>
+  <dimension ref="A1:T82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5680,10 +5680,10 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="B80" t="n">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -5702,54 +5702,54 @@
         <v>2024</v>
       </c>
       <c r="G80" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="H80" t="n">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="I80" t="n">
         <v>20</v>
       </c>
       <c r="J80" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="K80" t="n">
-        <v>-21444.89000000005</v>
+        <v>-14409.54000000001</v>
       </c>
       <c r="L80" t="n">
-        <v>-10723.64000000003</v>
+        <v>-7205.370000000003</v>
       </c>
       <c r="M80" t="n">
-        <v>6572</v>
+        <v>5188</v>
       </c>
       <c r="N80" t="n">
-        <v>-10721.25000000003</v>
+        <v>-7204.170000000004</v>
       </c>
       <c r="O80" t="n">
-        <v>-39.29000000000019</v>
+        <v>-23.69999999999982</v>
       </c>
       <c r="P80" t="n">
-        <v>63.94000000000005</v>
+        <v>60.44000000000005</v>
       </c>
       <c r="Q80" t="n">
-        <v>-1.631352708460138</v>
+        <v>-1.388621819583655</v>
       </c>
       <c r="R80" t="n">
-        <v>3.699525295550716</v>
+        <v>5.558935173511369</v>
       </c>
       <c r="S80" t="n">
-        <v>-1.490000000000009</v>
+        <v>-2.069999999999936</v>
       </c>
       <c r="T80" t="n">
-        <v>0.07075471698113207</v>
+        <v>0.1395528141865844</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="B81" t="n">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -5768,45 +5768,111 @@
         <v>2024</v>
       </c>
       <c r="G81" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="H81" t="n">
         <v>1.2</v>
       </c>
       <c r="I81" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="J81" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="K81" t="n">
-        <v>-24576.41000000003</v>
+        <v>-21444.89000000005</v>
       </c>
       <c r="L81" t="n">
-        <v>-12292.07000000001</v>
+        <v>-10723.64000000003</v>
       </c>
       <c r="M81" t="n">
-        <v>10262</v>
+        <v>6572</v>
       </c>
       <c r="N81" t="n">
-        <v>-12284.34000000001</v>
+        <v>-10721.25000000003</v>
       </c>
       <c r="O81" t="n">
         <v>-39.29000000000019</v>
       </c>
       <c r="P81" t="n">
+        <v>63.94000000000005</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>-1.631352708460138</v>
+      </c>
+      <c r="R81" t="n">
+        <v>3.699525295550716</v>
+      </c>
+      <c r="S81" t="n">
+        <v>-1.490000000000009</v>
+      </c>
+      <c r="T81" t="n">
+        <v>0.07075471698113207</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B82" t="n">
+        <v>52</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>XAUUSD</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F82" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G82" t="n">
+        <v>65</v>
+      </c>
+      <c r="H82" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I82" t="n">
+        <v>5</v>
+      </c>
+      <c r="J82" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K82" t="n">
+        <v>-24576.41000000003</v>
+      </c>
+      <c r="L82" t="n">
+        <v>-12292.07000000001</v>
+      </c>
+      <c r="M82" t="n">
+        <v>10262</v>
+      </c>
+      <c r="N82" t="n">
+        <v>-12284.34000000001</v>
+      </c>
+      <c r="O82" t="n">
+        <v>-39.29000000000019</v>
+      </c>
+      <c r="P82" t="n">
         <v>61.75999999999999</v>
       </c>
-      <c r="Q81" t="n">
+      <c r="Q82" t="n">
         <v>-1.19707074644319</v>
       </c>
-      <c r="R81" t="n">
+      <c r="R82" t="n">
         <v>4.660777633941981</v>
       </c>
-      <c r="S81" t="n">
+      <c r="S82" t="n">
         <v>-1.889999999999873</v>
       </c>
-      <c r="T81" t="n">
+      <c r="T82" t="n">
         <v>0.2258818943675697</v>
       </c>
     </row>
